--- a/文档/张云柯/喵娘大作战角色属性表.xlsx
+++ b/文档/张云柯/喵娘大作战角色属性表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\喵娘大作战\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\miaoniang\文档\张云柯\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10260" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="战斗流程" sheetId="12" r:id="rId1"/>
@@ -3016,18 +3016,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3057,6 +3045,18 @@
     </xf>
     <xf numFmtId="178" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3122,7 +3122,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4533,7 +4532,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5011,7 +5009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5487,7 +5484,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5569,7 +5565,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5815,7 +5810,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6196,7 +6190,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6602,7 +6595,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7078,7 +7070,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7185,7 +7176,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8596,7 +8586,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18278,8 +18267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18333,116 +18322,116 @@
       <c r="A1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62" t="s">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62" t="s">
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BS1" s="62"/>
-      <c r="BT1" s="62"/>
-      <c r="BU1" s="62"/>
-      <c r="BV1" s="62"/>
-      <c r="BW1" s="62"/>
-      <c r="BX1" s="62"/>
-      <c r="BY1" s="62"/>
-      <c r="BZ1" s="62"/>
-      <c r="CA1" s="62"/>
-      <c r="CB1" s="62"/>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="62"/>
-      <c r="CE1" s="62" t="s">
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
+      <c r="BR1" s="71"/>
+      <c r="BS1" s="71"/>
+      <c r="BT1" s="71"/>
+      <c r="BU1" s="71"/>
+      <c r="BV1" s="71"/>
+      <c r="BW1" s="71"/>
+      <c r="BX1" s="71"/>
+      <c r="BY1" s="71"/>
+      <c r="BZ1" s="71"/>
+      <c r="CA1" s="71"/>
+      <c r="CB1" s="71"/>
+      <c r="CC1" s="71"/>
+      <c r="CD1" s="71"/>
+      <c r="CE1" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="CF1" s="62"/>
-      <c r="CG1" s="62"/>
-      <c r="CH1" s="62"/>
-      <c r="CI1" s="62"/>
-      <c r="CJ1" s="62"/>
-      <c r="CK1" s="62"/>
-      <c r="CL1" s="62"/>
-      <c r="CM1" s="62"/>
-      <c r="CN1" s="62"/>
-      <c r="CO1" s="62"/>
-      <c r="CP1" s="62"/>
-      <c r="CQ1" s="62"/>
-      <c r="CR1" s="62"/>
-      <c r="CS1" s="62"/>
-      <c r="CT1" s="62"/>
-      <c r="CU1" s="62"/>
-      <c r="CV1" s="62"/>
-      <c r="CW1" s="62"/>
-      <c r="CX1" s="62"/>
+      <c r="CF1" s="71"/>
+      <c r="CG1" s="71"/>
+      <c r="CH1" s="71"/>
+      <c r="CI1" s="71"/>
+      <c r="CJ1" s="71"/>
+      <c r="CK1" s="71"/>
+      <c r="CL1" s="71"/>
+      <c r="CM1" s="71"/>
+      <c r="CN1" s="71"/>
+      <c r="CO1" s="71"/>
+      <c r="CP1" s="71"/>
+      <c r="CQ1" s="71"/>
+      <c r="CR1" s="71"/>
+      <c r="CS1" s="71"/>
+      <c r="CT1" s="71"/>
+      <c r="CU1" s="71"/>
+      <c r="CV1" s="71"/>
+      <c r="CW1" s="71"/>
+      <c r="CX1" s="71"/>
     </row>
     <row r="2" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -28503,306 +28492,306 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61"/>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61"/>
-      <c r="Z46" s="61"/>
-      <c r="AA46" s="61"/>
-      <c r="AB46" s="61"/>
-      <c r="AC46" s="61"/>
-      <c r="AD46" s="61"/>
-      <c r="AE46" s="61"/>
-      <c r="AF46" s="61"/>
-      <c r="AG46" s="61"/>
-      <c r="AH46" s="61"/>
-      <c r="AI46" s="61"/>
-      <c r="AJ46" s="61"/>
-      <c r="AK46" s="61"/>
-      <c r="AL46" s="61"/>
-      <c r="AM46" s="61"/>
-      <c r="AN46" s="61"/>
-      <c r="AO46" s="61"/>
-      <c r="AP46" s="61"/>
-      <c r="AQ46" s="61"/>
-      <c r="AR46" s="61"/>
-      <c r="AS46" s="61"/>
-      <c r="AT46" s="61"/>
-      <c r="AU46" s="61"/>
-      <c r="AV46" s="61"/>
-      <c r="AW46" s="61"/>
-      <c r="AX46" s="61"/>
-      <c r="AY46" s="61"/>
-      <c r="AZ46" s="61"/>
-      <c r="BA46" s="61"/>
-      <c r="BB46" s="61"/>
-      <c r="BC46" s="61"/>
-      <c r="BD46" s="61"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="72"/>
+      <c r="AN46" s="72"/>
+      <c r="AO46" s="72"/>
+      <c r="AP46" s="72"/>
+      <c r="AQ46" s="72"/>
+      <c r="AR46" s="72"/>
+      <c r="AS46" s="72"/>
+      <c r="AT46" s="72"/>
+      <c r="AU46" s="72"/>
+      <c r="AV46" s="72"/>
+      <c r="AW46" s="72"/>
+      <c r="AX46" s="72"/>
+      <c r="AY46" s="72"/>
+      <c r="AZ46" s="72"/>
+      <c r="BA46" s="72"/>
+      <c r="BB46" s="72"/>
+      <c r="BC46" s="72"/>
+      <c r="BD46" s="72"/>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>2</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="61"/>
-      <c r="AA47" s="61"/>
-      <c r="AB47" s="61"/>
-      <c r="AC47" s="61"/>
-      <c r="AD47" s="61"/>
-      <c r="AE47" s="61"/>
-      <c r="AF47" s="61"/>
-      <c r="AG47" s="61"/>
-      <c r="AH47" s="61"/>
-      <c r="AI47" s="61"/>
-      <c r="AJ47" s="61"/>
-      <c r="AK47" s="61"/>
-      <c r="AL47" s="61"/>
-      <c r="AM47" s="61"/>
-      <c r="AN47" s="61"/>
-      <c r="AO47" s="61"/>
-      <c r="AP47" s="61"/>
-      <c r="AQ47" s="61"/>
-      <c r="AR47" s="61"/>
-      <c r="AS47" s="61"/>
-      <c r="AT47" s="61"/>
-      <c r="AU47" s="61"/>
-      <c r="AV47" s="61"/>
-      <c r="AW47" s="61"/>
-      <c r="AX47" s="61"/>
-      <c r="AY47" s="61"/>
-      <c r="AZ47" s="61"/>
-      <c r="BA47" s="61"/>
-      <c r="BB47" s="61"/>
-      <c r="BC47" s="61"/>
-      <c r="BD47" s="61"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+      <c r="AB47" s="72"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="72"/>
+      <c r="AE47" s="72"/>
+      <c r="AF47" s="72"/>
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="72"/>
+      <c r="AI47" s="72"/>
+      <c r="AJ47" s="72"/>
+      <c r="AK47" s="72"/>
+      <c r="AL47" s="72"/>
+      <c r="AM47" s="72"/>
+      <c r="AN47" s="72"/>
+      <c r="AO47" s="72"/>
+      <c r="AP47" s="72"/>
+      <c r="AQ47" s="72"/>
+      <c r="AR47" s="72"/>
+      <c r="AS47" s="72"/>
+      <c r="AT47" s="72"/>
+      <c r="AU47" s="72"/>
+      <c r="AV47" s="72"/>
+      <c r="AW47" s="72"/>
+      <c r="AX47" s="72"/>
+      <c r="AY47" s="72"/>
+      <c r="AZ47" s="72"/>
+      <c r="BA47" s="72"/>
+      <c r="BB47" s="72"/>
+      <c r="BC47" s="72"/>
+      <c r="BD47" s="72"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="61"/>
-      <c r="T48" s="61"/>
-      <c r="U48" s="61"/>
-      <c r="V48" s="61"/>
-      <c r="W48" s="61"/>
-      <c r="X48" s="61"/>
-      <c r="Y48" s="61"/>
-      <c r="Z48" s="61"/>
-      <c r="AA48" s="61"/>
-      <c r="AB48" s="61"/>
-      <c r="AC48" s="61"/>
-      <c r="AD48" s="61"/>
-      <c r="AE48" s="61"/>
-      <c r="AF48" s="61"/>
-      <c r="AG48" s="61"/>
-      <c r="AH48" s="61"/>
-      <c r="AI48" s="61"/>
-      <c r="AJ48" s="61"/>
-      <c r="AK48" s="61"/>
-      <c r="AL48" s="61"/>
-      <c r="AM48" s="61"/>
-      <c r="AN48" s="61"/>
-      <c r="AO48" s="61"/>
-      <c r="AP48" s="61"/>
-      <c r="AQ48" s="61"/>
-      <c r="AR48" s="61"/>
-      <c r="AS48" s="61"/>
-      <c r="AT48" s="61"/>
-      <c r="AU48" s="61"/>
-      <c r="AV48" s="61"/>
-      <c r="AW48" s="61"/>
-      <c r="AX48" s="61"/>
-      <c r="AY48" s="61"/>
-      <c r="AZ48" s="61"/>
-      <c r="BA48" s="61"/>
-      <c r="BB48" s="61"/>
-      <c r="BC48" s="61"/>
-      <c r="BD48" s="61"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
+      <c r="AD48" s="72"/>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="72"/>
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="72"/>
+      <c r="AL48" s="72"/>
+      <c r="AM48" s="72"/>
+      <c r="AN48" s="72"/>
+      <c r="AO48" s="72"/>
+      <c r="AP48" s="72"/>
+      <c r="AQ48" s="72"/>
+      <c r="AR48" s="72"/>
+      <c r="AS48" s="72"/>
+      <c r="AT48" s="72"/>
+      <c r="AU48" s="72"/>
+      <c r="AV48" s="72"/>
+      <c r="AW48" s="72"/>
+      <c r="AX48" s="72"/>
+      <c r="AY48" s="72"/>
+      <c r="AZ48" s="72"/>
+      <c r="BA48" s="72"/>
+      <c r="BB48" s="72"/>
+      <c r="BC48" s="72"/>
+      <c r="BD48" s="72"/>
     </row>
     <row r="49" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>4</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
-      <c r="T49" s="61"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="61"/>
-      <c r="AA49" s="61"/>
-      <c r="AB49" s="61"/>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="61"/>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="61"/>
-      <c r="AI49" s="61"/>
-      <c r="AJ49" s="61"/>
-      <c r="AK49" s="61"/>
-      <c r="AL49" s="61"/>
-      <c r="AM49" s="61"/>
-      <c r="AN49" s="61"/>
-      <c r="AO49" s="61"/>
-      <c r="AP49" s="61"/>
-      <c r="AQ49" s="61"/>
-      <c r="AR49" s="61"/>
-      <c r="AS49" s="61"/>
-      <c r="AT49" s="61"/>
-      <c r="AU49" s="61"/>
-      <c r="AV49" s="61"/>
-      <c r="AW49" s="61"/>
-      <c r="AX49" s="61"/>
-      <c r="AY49" s="61"/>
-      <c r="AZ49" s="61"/>
-      <c r="BA49" s="61"/>
-      <c r="BB49" s="61"/>
-      <c r="BC49" s="61"/>
-      <c r="BD49" s="61"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="72"/>
+      <c r="X49" s="72"/>
+      <c r="Y49" s="72"/>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="72"/>
+      <c r="AB49" s="72"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="72"/>
+      <c r="AE49" s="72"/>
+      <c r="AF49" s="72"/>
+      <c r="AG49" s="72"/>
+      <c r="AH49" s="72"/>
+      <c r="AI49" s="72"/>
+      <c r="AJ49" s="72"/>
+      <c r="AK49" s="72"/>
+      <c r="AL49" s="72"/>
+      <c r="AM49" s="72"/>
+      <c r="AN49" s="72"/>
+      <c r="AO49" s="72"/>
+      <c r="AP49" s="72"/>
+      <c r="AQ49" s="72"/>
+      <c r="AR49" s="72"/>
+      <c r="AS49" s="72"/>
+      <c r="AT49" s="72"/>
+      <c r="AU49" s="72"/>
+      <c r="AV49" s="72"/>
+      <c r="AW49" s="72"/>
+      <c r="AX49" s="72"/>
+      <c r="AY49" s="72"/>
+      <c r="AZ49" s="72"/>
+      <c r="BA49" s="72"/>
+      <c r="BB49" s="72"/>
+      <c r="BC49" s="72"/>
+      <c r="BD49" s="72"/>
     </row>
     <row r="50" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="61"/>
-      <c r="U50" s="61"/>
-      <c r="V50" s="61"/>
-      <c r="W50" s="61"/>
-      <c r="X50" s="61"/>
-      <c r="Y50" s="61"/>
-      <c r="Z50" s="61"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="61"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="61"/>
-      <c r="AI50" s="61"/>
-      <c r="AJ50" s="61"/>
-      <c r="AK50" s="61"/>
-      <c r="AL50" s="61"/>
-      <c r="AM50" s="61"/>
-      <c r="AN50" s="61"/>
-      <c r="AO50" s="61"/>
-      <c r="AP50" s="61"/>
-      <c r="AQ50" s="61"/>
-      <c r="AR50" s="61"/>
-      <c r="AS50" s="61"/>
-      <c r="AT50" s="61"/>
-      <c r="AU50" s="61"/>
-      <c r="AV50" s="61"/>
-      <c r="AW50" s="61"/>
-      <c r="AX50" s="61"/>
-      <c r="AY50" s="61"/>
-      <c r="AZ50" s="61"/>
-      <c r="BA50" s="61"/>
-      <c r="BB50" s="61"/>
-      <c r="BC50" s="61"/>
-      <c r="BD50" s="61"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
+      <c r="V50" s="72"/>
+      <c r="W50" s="72"/>
+      <c r="X50" s="72"/>
+      <c r="Y50" s="72"/>
+      <c r="Z50" s="72"/>
+      <c r="AA50" s="72"/>
+      <c r="AB50" s="72"/>
+      <c r="AC50" s="72"/>
+      <c r="AD50" s="72"/>
+      <c r="AE50" s="72"/>
+      <c r="AF50" s="72"/>
+      <c r="AG50" s="72"/>
+      <c r="AH50" s="72"/>
+      <c r="AI50" s="72"/>
+      <c r="AJ50" s="72"/>
+      <c r="AK50" s="72"/>
+      <c r="AL50" s="72"/>
+      <c r="AM50" s="72"/>
+      <c r="AN50" s="72"/>
+      <c r="AO50" s="72"/>
+      <c r="AP50" s="72"/>
+      <c r="AQ50" s="72"/>
+      <c r="AR50" s="72"/>
+      <c r="AS50" s="72"/>
+      <c r="AT50" s="72"/>
+      <c r="AU50" s="72"/>
+      <c r="AV50" s="72"/>
+      <c r="AW50" s="72"/>
+      <c r="AX50" s="72"/>
+      <c r="AY50" s="72"/>
+      <c r="AZ50" s="72"/>
+      <c r="BA50" s="72"/>
+      <c r="BB50" s="72"/>
+      <c r="BC50" s="72"/>
+      <c r="BD50" s="72"/>
     </row>
     <row r="51" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B51">
@@ -29388,16 +29377,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C49:BD49"/>
+    <mergeCell ref="C50:BD50"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AP1"/>
+    <mergeCell ref="AQ1:BJ1"/>
     <mergeCell ref="BK1:CD1"/>
     <mergeCell ref="CE1:CX1"/>
     <mergeCell ref="C46:BD46"/>
     <mergeCell ref="C47:BD47"/>
     <mergeCell ref="C48:BD48"/>
-    <mergeCell ref="C49:BD49"/>
-    <mergeCell ref="C50:BD50"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AP1"/>
-    <mergeCell ref="AQ1:BJ1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29476,116 +29465,116 @@
       <c r="A1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62" t="s">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62" t="s">
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="71"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="71"/>
+      <c r="AY1" s="71"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="71"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BS1" s="62"/>
-      <c r="BT1" s="62"/>
-      <c r="BU1" s="62"/>
-      <c r="BV1" s="62"/>
-      <c r="BW1" s="62"/>
-      <c r="BX1" s="62"/>
-      <c r="BY1" s="62"/>
-      <c r="BZ1" s="62"/>
-      <c r="CA1" s="62"/>
-      <c r="CB1" s="62"/>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="62"/>
-      <c r="CE1" s="62" t="s">
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="71"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="71"/>
+      <c r="BQ1" s="71"/>
+      <c r="BR1" s="71"/>
+      <c r="BS1" s="71"/>
+      <c r="BT1" s="71"/>
+      <c r="BU1" s="71"/>
+      <c r="BV1" s="71"/>
+      <c r="BW1" s="71"/>
+      <c r="BX1" s="71"/>
+      <c r="BY1" s="71"/>
+      <c r="BZ1" s="71"/>
+      <c r="CA1" s="71"/>
+      <c r="CB1" s="71"/>
+      <c r="CC1" s="71"/>
+      <c r="CD1" s="71"/>
+      <c r="CE1" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="CF1" s="62"/>
-      <c r="CG1" s="62"/>
-      <c r="CH1" s="62"/>
-      <c r="CI1" s="62"/>
-      <c r="CJ1" s="62"/>
-      <c r="CK1" s="62"/>
-      <c r="CL1" s="62"/>
-      <c r="CM1" s="62"/>
-      <c r="CN1" s="62"/>
-      <c r="CO1" s="62"/>
-      <c r="CP1" s="62"/>
-      <c r="CQ1" s="62"/>
-      <c r="CR1" s="62"/>
-      <c r="CS1" s="62"/>
-      <c r="CT1" s="62"/>
-      <c r="CU1" s="62"/>
-      <c r="CV1" s="62"/>
-      <c r="CW1" s="62"/>
-      <c r="CX1" s="62"/>
+      <c r="CF1" s="71"/>
+      <c r="CG1" s="71"/>
+      <c r="CH1" s="71"/>
+      <c r="CI1" s="71"/>
+      <c r="CJ1" s="71"/>
+      <c r="CK1" s="71"/>
+      <c r="CL1" s="71"/>
+      <c r="CM1" s="71"/>
+      <c r="CN1" s="71"/>
+      <c r="CO1" s="71"/>
+      <c r="CP1" s="71"/>
+      <c r="CQ1" s="71"/>
+      <c r="CR1" s="71"/>
+      <c r="CS1" s="71"/>
+      <c r="CT1" s="71"/>
+      <c r="CU1" s="71"/>
+      <c r="CV1" s="71"/>
+      <c r="CW1" s="71"/>
+      <c r="CX1" s="71"/>
     </row>
     <row r="2" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -36040,7 +36029,7 @@
       </c>
       <c r="C18" s="46">
         <f t="shared" ref="C18:BN18" ca="1" si="30">IF(RAND()&lt;$B$41,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="46">
         <f t="shared" ca="1" si="30"/>
@@ -36060,7 +36049,7 @@
       </c>
       <c r="H18" s="46">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="46">
         <f t="shared" ca="1" si="30"/>
@@ -36176,7 +36165,7 @@
       </c>
       <c r="AK18" s="46">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="46">
         <f t="shared" ca="1" si="30"/>
@@ -36220,7 +36209,7 @@
       </c>
       <c r="AV18" s="46">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="46">
         <f t="shared" ca="1" si="30"/>
@@ -36348,7 +36337,7 @@
       </c>
       <c r="CB18" s="46">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="46">
         <f t="shared" ca="1" si="31"/>
@@ -36364,11 +36353,11 @@
       </c>
       <c r="CF18" s="46">
         <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG18" s="46">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH18" s="46">
         <f t="shared" ca="1" si="31"/>
@@ -36380,11 +36369,11 @@
       </c>
       <c r="CJ18" s="46">
         <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK18" s="46">
         <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL18" s="46">
         <f t="shared" ca="1" si="31"/>
@@ -36400,11 +36389,11 @@
       </c>
       <c r="CO18" s="46">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP18" s="46">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ18" s="46">
         <f t="shared" ca="1" si="31"/>
@@ -38490,23 +38479,23 @@
       </c>
       <c r="B24">
         <f ca="1">B5*$B$29+B8*$B$32+B11*$B$35+B14*$B$38+B17*$B$42+SUM($B18:C18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <f ca="1">C5*$B$29+C8*$B$32+C11*$B$35+C14*$B$38+C17*$B$42+SUM($B18:D18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f ca="1">D5*$B$29+D8*$B$32+D11*$B$35+D14*$B$38+D17*$B$42+SUM($B18:E18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f ca="1">E5*$B$29+E8*$B$32+E11*$B$35+E14*$B$38+E17*$B$42+SUM($B18:F18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f ca="1">F5*$B$29+F8*$B$32+F11*$B$35+F14*$B$38+F17*$B$42+SUM($B18:G18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f ca="1">G5*$B$29+G8*$B$32+G11*$B$35+G14*$B$38+G17*$B$42+SUM($B18:H18)</f>
@@ -38626,47 +38615,47 @@
       </c>
       <c r="AJ24">
         <f ca="1">AJ5*$B$29+AJ8*$B$32+AJ11*$B$35+AJ14*$B$38+AJ17*$B$42+SUM($B18:AK18)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24">
         <f ca="1">AK5*$B$29+AK8*$B$32+AK11*$B$35+AK14*$B$38+AK17*$B$42+SUM($B18:AL18)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL24">
         <f ca="1">AL5*$B$29+AL8*$B$32+AL11*$B$35+AL14*$B$38+AL17*$B$42+SUM($B18:AM18)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM24">
         <f ca="1">AM5*$B$29+AM8*$B$32+AM11*$B$35+AM14*$B$38+AM17*$B$42+SUM($B18:AN18)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN24">
         <f ca="1">AN5*$B$29+AN8*$B$32+AN11*$B$35+AN14*$B$38+AN17*$B$42+SUM($B18:AO18)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO24">
         <f ca="1">AO5*$B$29+AO8*$B$32+AO11*$B$35+AO14*$B$38+AO17*$B$42+SUM($B18:AP18)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24">
         <f ca="1">AP5*$B$29+AP8*$B$32+AP11*$B$35+AP14*$B$38+AP17*$B$42+SUM($B18:AQ18)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ24">
         <f ca="1">AQ5*$B$29+AQ8*$B$32+AQ11*$B$35+AQ14*$B$38+AQ17*$B$42+SUM($B18:AR18)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR24">
         <f ca="1">AR5*$B$29+AR8*$B$32+AR11*$B$35+AR14*$B$38+AR17*$B$42+SUM($B18:AS18)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS24">
         <f ca="1">AS5*$B$29+AS8*$B$32+AS11*$B$35+AS14*$B$38+AS17*$B$42+SUM($B18:AT18)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT24">
         <f ca="1">AT5*$B$29+AT8*$B$32+AT11*$B$35+AT14*$B$38+AT17*$B$42+SUM($B18:AU18)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU24">
         <f ca="1">AU5*$B$29+AU8*$B$32+AU11*$B$35+AU14*$B$38+AU17*$B$42+SUM($B18:AV18)</f>
@@ -38798,19 +38787,19 @@
       </c>
       <c r="CA24">
         <f ca="1">CA5*$B$29+CA8*$B$32+CA11*$B$35+CA14*$B$38+CA17*$B$42+SUM($B18:CB18)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CB24">
         <f ca="1">CB5*$B$29+CB8*$B$32+CB11*$B$35+CB14*$B$38+CB17*$B$42+SUM($B18:CC18)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CC24">
         <f ca="1">CC5*$B$29+CC8*$B$32+CC11*$B$35+CC14*$B$38+CC17*$B$42+SUM($B18:CD18)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CD24">
         <f ca="1">CD5*$B$29+CD8*$B$32+CD11*$B$35+CD14*$B$38+CD17*$B$42+SUM($B18:CE18)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE24">
         <f ca="1">CE5*$B$29+CE8*$B$32+CE11*$B$35+CE14*$B$38+CE17*$B$42+SUM($B18:CF18)</f>
@@ -38818,15 +38807,15 @@
       </c>
       <c r="CF24">
         <f ca="1">CF5*$B$29+CF8*$B$32+CF11*$B$35+CF14*$B$38+CF17*$B$42+SUM($B18:CG18)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CG24">
         <f ca="1">CG5*$B$29+CG8*$B$32+CG11*$B$35+CG14*$B$38+CG17*$B$42+SUM($B18:CH18)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CH24">
         <f ca="1">CH5*$B$29+CH8*$B$32+CH11*$B$35+CH14*$B$38+CH17*$B$42+SUM($B18:CI18)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CI24">
         <f ca="1">CI5*$B$29+CI8*$B$32+CI11*$B$35+CI14*$B$38+CI17*$B$42+SUM($B18:CJ18)</f>
@@ -38834,19 +38823,19 @@
       </c>
       <c r="CJ24">
         <f ca="1">CJ5*$B$29+CJ8*$B$32+CJ11*$B$35+CJ14*$B$38+CJ17*$B$42+SUM($B18:CK18)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CK24">
         <f ca="1">CK5*$B$29+CK8*$B$32+CK11*$B$35+CK14*$B$38+CK17*$B$42+SUM($B18:CL18)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CL24">
         <f ca="1">CL5*$B$29+CL8*$B$32+CL11*$B$35+CL14*$B$38+CL17*$B$42+SUM($B18:CM18)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CM24">
         <f ca="1">CM5*$B$29+CM8*$B$32+CM11*$B$35+CM14*$B$38+CM17*$B$42+SUM($B18:CN18)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CN24">
         <f ca="1">CN5*$B$29+CN8*$B$32+CN11*$B$35+CN14*$B$38+CN17*$B$42+SUM($B18:CO18)</f>
@@ -38854,43 +38843,43 @@
       </c>
       <c r="CO24">
         <f ca="1">CO5*$B$29+CO8*$B$32+CO11*$B$35+CO14*$B$38+CO17*$B$42+SUM($B18:CP18)</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CP24">
         <f ca="1">CP5*$B$29+CP8*$B$32+CP11*$B$35+CP14*$B$38+CP17*$B$42+SUM($B18:CQ18)</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CQ24">
         <f ca="1">CQ5*$B$29+CQ8*$B$32+CQ11*$B$35+CQ14*$B$38+CQ17*$B$42+SUM($B18:CR18)</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CR24">
         <f ca="1">CR5*$B$29+CR8*$B$32+CR11*$B$35+CR14*$B$38+CR17*$B$42+SUM($B18:CS18)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CS24">
         <f ca="1">CS5*$B$29+CS8*$B$32+CS11*$B$35+CS14*$B$38+CS17*$B$42+SUM($B18:CT18)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CT24">
         <f ca="1">CT5*$B$29+CT8*$B$32+CT11*$B$35+CT14*$B$38+CT17*$B$42+SUM($B18:CU18)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CU24">
         <f ca="1">CU5*$B$29+CU8*$B$32+CU11*$B$35+CU14*$B$38+CU17*$B$42+SUM($B18:CV18)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CV24">
         <f ca="1">CV5*$B$29+CV8*$B$32+CV11*$B$35+CV14*$B$38+CV17*$B$42+SUM($B18:CW18)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CW24">
         <f ca="1">CW5*$B$29+CW8*$B$32+CW11*$B$35+CW14*$B$38+CW17*$B$42+SUM($B18:CX18)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CX24">
         <f ca="1">CX5*$B$29+CX8*$B$32+CX11*$B$35+CX14*$B$38+CX17*$B$42+SUM($B18:CY18)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:102" x14ac:dyDescent="0.2">
@@ -38899,23 +38888,23 @@
       </c>
       <c r="B25">
         <f ca="1">B24*0.25/12</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C25">
         <f t="shared" ref="C25:BN25" ca="1" si="42">C24*0.25/12</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="42"/>
@@ -39035,47 +39024,47 @@
       </c>
       <c r="AJ25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="AK25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="AL25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="AM25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="AN25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="AO25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="AP25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="AQ25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="AR25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="AS25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="AT25">
         <f t="shared" ca="1" si="42"/>
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <f t="shared" ca="1" si="42"/>
@@ -39207,19 +39196,19 @@
       </c>
       <c r="CA25">
         <f t="shared" ca="1" si="43"/>
-        <v>0.91666666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="CB25">
         <f t="shared" ca="1" si="43"/>
-        <v>0.9375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="CC25">
         <f t="shared" ca="1" si="43"/>
-        <v>0.9375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="CD25">
         <f t="shared" ca="1" si="43"/>
-        <v>1</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="CE25">
         <f t="shared" ca="1" si="43"/>
@@ -39227,15 +39216,15 @@
       </c>
       <c r="CF25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.0208333333333333</v>
+        <v>1</v>
       </c>
       <c r="CG25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.0416666666666667</v>
+        <v>1.0208333333333333</v>
       </c>
       <c r="CH25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.0416666666666667</v>
+        <v>1.0208333333333333</v>
       </c>
       <c r="CI25">
         <f t="shared" ca="1" si="43"/>
@@ -39243,19 +39232,19 @@
       </c>
       <c r="CJ25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.0416666666666667</v>
+        <v>1.0625</v>
       </c>
       <c r="CK25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.0833333333333333</v>
+        <v>1.1041666666666667</v>
       </c>
       <c r="CL25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.0833333333333333</v>
+        <v>1.1041666666666667</v>
       </c>
       <c r="CM25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.1041666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="CN25">
         <f t="shared" ca="1" si="43"/>
@@ -39263,43 +39252,43 @@
       </c>
       <c r="CO25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.1666666666666667</v>
+        <v>1.1458333333333333</v>
       </c>
       <c r="CP25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.1666666666666667</v>
+        <v>1.1458333333333333</v>
       </c>
       <c r="CQ25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.1666666666666667</v>
+        <v>1.1458333333333333</v>
       </c>
       <c r="CR25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.2083333333333333</v>
+        <v>1.1875</v>
       </c>
       <c r="CS25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.2083333333333333</v>
+        <v>1.1875</v>
       </c>
       <c r="CT25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.2291666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="CU25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.2291666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="CV25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.2291666666666667</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="CW25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.25</v>
+        <v>1.2291666666666667</v>
       </c>
       <c r="CX25">
         <f t="shared" ca="1" si="43"/>
-        <v>1.3125</v>
+        <v>1.2916666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:102" x14ac:dyDescent="0.2">
@@ -39626,7 +39615,7 @@
       </c>
       <c r="B43" s="11">
         <f ca="1">SUM(18:18)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="33"/>
     </row>
@@ -39647,306 +39636,306 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="U46" s="61"/>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61"/>
-      <c r="Z46" s="61"/>
-      <c r="AA46" s="61"/>
-      <c r="AB46" s="61"/>
-      <c r="AC46" s="61"/>
-      <c r="AD46" s="61"/>
-      <c r="AE46" s="61"/>
-      <c r="AF46" s="61"/>
-      <c r="AG46" s="61"/>
-      <c r="AH46" s="61"/>
-      <c r="AI46" s="61"/>
-      <c r="AJ46" s="61"/>
-      <c r="AK46" s="61"/>
-      <c r="AL46" s="61"/>
-      <c r="AM46" s="61"/>
-      <c r="AN46" s="61"/>
-      <c r="AO46" s="61"/>
-      <c r="AP46" s="61"/>
-      <c r="AQ46" s="61"/>
-      <c r="AR46" s="61"/>
-      <c r="AS46" s="61"/>
-      <c r="AT46" s="61"/>
-      <c r="AU46" s="61"/>
-      <c r="AV46" s="61"/>
-      <c r="AW46" s="61"/>
-      <c r="AX46" s="61"/>
-      <c r="AY46" s="61"/>
-      <c r="AZ46" s="61"/>
-      <c r="BA46" s="61"/>
-      <c r="BB46" s="61"/>
-      <c r="BC46" s="61"/>
-      <c r="BD46" s="61"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="72"/>
+      <c r="AN46" s="72"/>
+      <c r="AO46" s="72"/>
+      <c r="AP46" s="72"/>
+      <c r="AQ46" s="72"/>
+      <c r="AR46" s="72"/>
+      <c r="AS46" s="72"/>
+      <c r="AT46" s="72"/>
+      <c r="AU46" s="72"/>
+      <c r="AV46" s="72"/>
+      <c r="AW46" s="72"/>
+      <c r="AX46" s="72"/>
+      <c r="AY46" s="72"/>
+      <c r="AZ46" s="72"/>
+      <c r="BA46" s="72"/>
+      <c r="BB46" s="72"/>
+      <c r="BC46" s="72"/>
+      <c r="BD46" s="72"/>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>2</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="61"/>
-      <c r="AA47" s="61"/>
-      <c r="AB47" s="61"/>
-      <c r="AC47" s="61"/>
-      <c r="AD47" s="61"/>
-      <c r="AE47" s="61"/>
-      <c r="AF47" s="61"/>
-      <c r="AG47" s="61"/>
-      <c r="AH47" s="61"/>
-      <c r="AI47" s="61"/>
-      <c r="AJ47" s="61"/>
-      <c r="AK47" s="61"/>
-      <c r="AL47" s="61"/>
-      <c r="AM47" s="61"/>
-      <c r="AN47" s="61"/>
-      <c r="AO47" s="61"/>
-      <c r="AP47" s="61"/>
-      <c r="AQ47" s="61"/>
-      <c r="AR47" s="61"/>
-      <c r="AS47" s="61"/>
-      <c r="AT47" s="61"/>
-      <c r="AU47" s="61"/>
-      <c r="AV47" s="61"/>
-      <c r="AW47" s="61"/>
-      <c r="AX47" s="61"/>
-      <c r="AY47" s="61"/>
-      <c r="AZ47" s="61"/>
-      <c r="BA47" s="61"/>
-      <c r="BB47" s="61"/>
-      <c r="BC47" s="61"/>
-      <c r="BD47" s="61"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+      <c r="AB47" s="72"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="72"/>
+      <c r="AE47" s="72"/>
+      <c r="AF47" s="72"/>
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="72"/>
+      <c r="AI47" s="72"/>
+      <c r="AJ47" s="72"/>
+      <c r="AK47" s="72"/>
+      <c r="AL47" s="72"/>
+      <c r="AM47" s="72"/>
+      <c r="AN47" s="72"/>
+      <c r="AO47" s="72"/>
+      <c r="AP47" s="72"/>
+      <c r="AQ47" s="72"/>
+      <c r="AR47" s="72"/>
+      <c r="AS47" s="72"/>
+      <c r="AT47" s="72"/>
+      <c r="AU47" s="72"/>
+      <c r="AV47" s="72"/>
+      <c r="AW47" s="72"/>
+      <c r="AX47" s="72"/>
+      <c r="AY47" s="72"/>
+      <c r="AZ47" s="72"/>
+      <c r="BA47" s="72"/>
+      <c r="BB47" s="72"/>
+      <c r="BC47" s="72"/>
+      <c r="BD47" s="72"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="61"/>
-      <c r="T48" s="61"/>
-      <c r="U48" s="61"/>
-      <c r="V48" s="61"/>
-      <c r="W48" s="61"/>
-      <c r="X48" s="61"/>
-      <c r="Y48" s="61"/>
-      <c r="Z48" s="61"/>
-      <c r="AA48" s="61"/>
-      <c r="AB48" s="61"/>
-      <c r="AC48" s="61"/>
-      <c r="AD48" s="61"/>
-      <c r="AE48" s="61"/>
-      <c r="AF48" s="61"/>
-      <c r="AG48" s="61"/>
-      <c r="AH48" s="61"/>
-      <c r="AI48" s="61"/>
-      <c r="AJ48" s="61"/>
-      <c r="AK48" s="61"/>
-      <c r="AL48" s="61"/>
-      <c r="AM48" s="61"/>
-      <c r="AN48" s="61"/>
-      <c r="AO48" s="61"/>
-      <c r="AP48" s="61"/>
-      <c r="AQ48" s="61"/>
-      <c r="AR48" s="61"/>
-      <c r="AS48" s="61"/>
-      <c r="AT48" s="61"/>
-      <c r="AU48" s="61"/>
-      <c r="AV48" s="61"/>
-      <c r="AW48" s="61"/>
-      <c r="AX48" s="61"/>
-      <c r="AY48" s="61"/>
-      <c r="AZ48" s="61"/>
-      <c r="BA48" s="61"/>
-      <c r="BB48" s="61"/>
-      <c r="BC48" s="61"/>
-      <c r="BD48" s="61"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
+      <c r="AD48" s="72"/>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="72"/>
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="72"/>
+      <c r="AL48" s="72"/>
+      <c r="AM48" s="72"/>
+      <c r="AN48" s="72"/>
+      <c r="AO48" s="72"/>
+      <c r="AP48" s="72"/>
+      <c r="AQ48" s="72"/>
+      <c r="AR48" s="72"/>
+      <c r="AS48" s="72"/>
+      <c r="AT48" s="72"/>
+      <c r="AU48" s="72"/>
+      <c r="AV48" s="72"/>
+      <c r="AW48" s="72"/>
+      <c r="AX48" s="72"/>
+      <c r="AY48" s="72"/>
+      <c r="AZ48" s="72"/>
+      <c r="BA48" s="72"/>
+      <c r="BB48" s="72"/>
+      <c r="BC48" s="72"/>
+      <c r="BD48" s="72"/>
     </row>
     <row r="49" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>4</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
-      <c r="T49" s="61"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="61"/>
-      <c r="AA49" s="61"/>
-      <c r="AB49" s="61"/>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="61"/>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="61"/>
-      <c r="AI49" s="61"/>
-      <c r="AJ49" s="61"/>
-      <c r="AK49" s="61"/>
-      <c r="AL49" s="61"/>
-      <c r="AM49" s="61"/>
-      <c r="AN49" s="61"/>
-      <c r="AO49" s="61"/>
-      <c r="AP49" s="61"/>
-      <c r="AQ49" s="61"/>
-      <c r="AR49" s="61"/>
-      <c r="AS49" s="61"/>
-      <c r="AT49" s="61"/>
-      <c r="AU49" s="61"/>
-      <c r="AV49" s="61"/>
-      <c r="AW49" s="61"/>
-      <c r="AX49" s="61"/>
-      <c r="AY49" s="61"/>
-      <c r="AZ49" s="61"/>
-      <c r="BA49" s="61"/>
-      <c r="BB49" s="61"/>
-      <c r="BC49" s="61"/>
-      <c r="BD49" s="61"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="72"/>
+      <c r="X49" s="72"/>
+      <c r="Y49" s="72"/>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="72"/>
+      <c r="AB49" s="72"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="72"/>
+      <c r="AE49" s="72"/>
+      <c r="AF49" s="72"/>
+      <c r="AG49" s="72"/>
+      <c r="AH49" s="72"/>
+      <c r="AI49" s="72"/>
+      <c r="AJ49" s="72"/>
+      <c r="AK49" s="72"/>
+      <c r="AL49" s="72"/>
+      <c r="AM49" s="72"/>
+      <c r="AN49" s="72"/>
+      <c r="AO49" s="72"/>
+      <c r="AP49" s="72"/>
+      <c r="AQ49" s="72"/>
+      <c r="AR49" s="72"/>
+      <c r="AS49" s="72"/>
+      <c r="AT49" s="72"/>
+      <c r="AU49" s="72"/>
+      <c r="AV49" s="72"/>
+      <c r="AW49" s="72"/>
+      <c r="AX49" s="72"/>
+      <c r="AY49" s="72"/>
+      <c r="AZ49" s="72"/>
+      <c r="BA49" s="72"/>
+      <c r="BB49" s="72"/>
+      <c r="BC49" s="72"/>
+      <c r="BD49" s="72"/>
     </row>
     <row r="50" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="61"/>
-      <c r="U50" s="61"/>
-      <c r="V50" s="61"/>
-      <c r="W50" s="61"/>
-      <c r="X50" s="61"/>
-      <c r="Y50" s="61"/>
-      <c r="Z50" s="61"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="61"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="61"/>
-      <c r="AI50" s="61"/>
-      <c r="AJ50" s="61"/>
-      <c r="AK50" s="61"/>
-      <c r="AL50" s="61"/>
-      <c r="AM50" s="61"/>
-      <c r="AN50" s="61"/>
-      <c r="AO50" s="61"/>
-      <c r="AP50" s="61"/>
-      <c r="AQ50" s="61"/>
-      <c r="AR50" s="61"/>
-      <c r="AS50" s="61"/>
-      <c r="AT50" s="61"/>
-      <c r="AU50" s="61"/>
-      <c r="AV50" s="61"/>
-      <c r="AW50" s="61"/>
-      <c r="AX50" s="61"/>
-      <c r="AY50" s="61"/>
-      <c r="AZ50" s="61"/>
-      <c r="BA50" s="61"/>
-      <c r="BB50" s="61"/>
-      <c r="BC50" s="61"/>
-      <c r="BD50" s="61"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
+      <c r="V50" s="72"/>
+      <c r="W50" s="72"/>
+      <c r="X50" s="72"/>
+      <c r="Y50" s="72"/>
+      <c r="Z50" s="72"/>
+      <c r="AA50" s="72"/>
+      <c r="AB50" s="72"/>
+      <c r="AC50" s="72"/>
+      <c r="AD50" s="72"/>
+      <c r="AE50" s="72"/>
+      <c r="AF50" s="72"/>
+      <c r="AG50" s="72"/>
+      <c r="AH50" s="72"/>
+      <c r="AI50" s="72"/>
+      <c r="AJ50" s="72"/>
+      <c r="AK50" s="72"/>
+      <c r="AL50" s="72"/>
+      <c r="AM50" s="72"/>
+      <c r="AN50" s="72"/>
+      <c r="AO50" s="72"/>
+      <c r="AP50" s="72"/>
+      <c r="AQ50" s="72"/>
+      <c r="AR50" s="72"/>
+      <c r="AS50" s="72"/>
+      <c r="AT50" s="72"/>
+      <c r="AU50" s="72"/>
+      <c r="AV50" s="72"/>
+      <c r="AW50" s="72"/>
+      <c r="AX50" s="72"/>
+      <c r="AY50" s="72"/>
+      <c r="AZ50" s="72"/>
+      <c r="BA50" s="72"/>
+      <c r="BB50" s="72"/>
+      <c r="BC50" s="72"/>
+      <c r="BD50" s="72"/>
     </row>
     <row r="51" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B51">
@@ -40250,11 +40239,11 @@
       </c>
       <c r="D55" s="44">
         <f ca="1">CX24/8</f>
-        <v>7.875</v>
+        <v>7.75</v>
       </c>
       <c r="E55" s="44">
         <f ca="1">CX24/12</f>
-        <v>5.25</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="F55">
         <f>MAX(B5:CX5)</f>
@@ -40286,7 +40275,7 @@
       </c>
       <c r="M55">
         <f ca="1">E55*18%</f>
-        <v>0.94499999999999995</v>
+        <v>0.93</v>
       </c>
       <c r="N55">
         <f>SUM(B3:CX3)</f>
@@ -40515,33 +40504,33 @@
       </c>
       <c r="F66" s="44">
         <f ca="1">$D$60*E55</f>
-        <v>52.5</v>
+        <v>51.666666666666671</v>
       </c>
       <c r="G66" s="32">
         <f ca="1">D66/SUM(D66:F66)</f>
-        <v>0.28077753779697623</v>
+        <v>0.28179190751445082</v>
       </c>
       <c r="H66" s="32">
         <f ca="1">E66/SUM(D66:F66)</f>
-        <v>0.49244060475161988</v>
+        <v>0.4942196531791907</v>
       </c>
       <c r="I66" s="32">
         <f ca="1">F66/SUM(D66:F66)</f>
-        <v>0.22678185745140389</v>
+        <v>0.22398843930635839</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C49:BD49"/>
+    <mergeCell ref="C50:BD50"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AP1"/>
+    <mergeCell ref="AQ1:BJ1"/>
     <mergeCell ref="BK1:CD1"/>
     <mergeCell ref="CE1:CX1"/>
     <mergeCell ref="C46:BD46"/>
     <mergeCell ref="C47:BD47"/>
     <mergeCell ref="C48:BD48"/>
-    <mergeCell ref="C49:BD49"/>
-    <mergeCell ref="C50:BD50"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AP1"/>
-    <mergeCell ref="AQ1:BJ1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43615,7 +43604,7 @@
       <c r="X29" s="2">
         <v>2900</v>
       </c>
-      <c r="Y29" s="74">
+      <c r="Y29" s="70">
         <f t="shared" si="5"/>
         <v>1.5711262770843117</v>
       </c>
@@ -43751,7 +43740,7 @@
       <c r="X37" s="2">
         <v>6100</v>
       </c>
-      <c r="Y37" s="74">
+      <c r="Y37" s="70">
         <f t="shared" si="5"/>
         <v>1.8878984880968723</v>
       </c>
@@ -44903,28 +44892,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
       <c r="V1" s="31" t="s">
         <v>104</v>
       </c>
@@ -45019,32 +45008,32 @@
       <c r="V2" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="73" t="s">
         <v>327</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64" t="s">
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -48518,8 +48507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48583,10 +48572,10 @@
       <c r="H2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="62" t="s">
         <v>120</v>
       </c>
     </row>
@@ -48615,10 +48604,10 @@
       <c r="H3" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="64" t="s">
         <v>124</v>
       </c>
       <c r="K3" t="s">
@@ -48714,11 +48703,11 @@
         <f>LOG10((VLOOKUP(B4,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.26898454725525189</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="65">
         <v>3536</v>
       </c>
       <c r="K4">
@@ -48832,11 +48821,11 @@
         <f>LOG10((VLOOKUP(B5,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25751213029993636</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="65">
         <v>3536</v>
       </c>
       <c r="K5">
@@ -48950,11 +48939,11 @@
         <f>LOG10((VLOOKUP(B6,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25470629282404711</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="65">
         <v>3536</v>
       </c>
       <c r="K6">
@@ -49068,11 +49057,11 @@
         <f>LOG10((VLOOKUP(B7,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25470629282404711</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="66">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="67">
         <v>3536</v>
       </c>
       <c r="K7" s="1">
@@ -49186,11 +49175,11 @@
         <f>LOG10((VLOOKUP(B8,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25166450290775044</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="66">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="67">
         <v>3536</v>
       </c>
       <c r="K8" s="1">
@@ -49304,11 +49293,11 @@
         <f>LOG10((VLOOKUP(B9,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25751213029993636</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="65">
         <v>3536</v>
       </c>
       <c r="K9">
@@ -49422,11 +49411,11 @@
         <f>LOG10((VLOOKUP(B10,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.24834340248566528</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="65">
         <v>3536</v>
       </c>
       <c r="K10">
@@ -49540,11 +49529,11 @@
         <f>LOG10((VLOOKUP(B11,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25166450290775044</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="66">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="67">
         <v>3536</v>
       </c>
       <c r="K11" s="1">
@@ -49658,11 +49647,11 @@
         <f>LOG10((VLOOKUP(B12,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.24468646209722794</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="66">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="67">
         <v>3536</v>
       </c>
       <c r="K12" s="1">
@@ -49776,11 +49765,11 @@
         <f>LOG10((VLOOKUP(B13,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25470629282404711</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="65">
         <v>3536</v>
       </c>
       <c r="K13">
@@ -49894,11 +49883,11 @@
         <f>LOG10((VLOOKUP(B14,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25751213029993636</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="65">
         <v>3536</v>
       </c>
       <c r="K14">
@@ -50012,11 +50001,11 @@
         <f>LOG10((VLOOKUP(B15,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.26011600065806406</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="65">
         <v>3536</v>
       </c>
       <c r="K15">
@@ -50130,11 +50119,11 @@
         <f>LOG10((VLOOKUP(B16,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.26011600065806406</v>
       </c>
-      <c r="I16" s="70">
+      <c r="I16" s="66">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="67">
         <v>3536</v>
       </c>
       <c r="K16" s="1">
@@ -50248,11 +50237,11 @@
         <f>LOG10((VLOOKUP(B17,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25751213029993636</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="66">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="67">
         <v>3536</v>
       </c>
       <c r="K17" s="1">
@@ -50366,11 +50355,11 @@
         <f>LOG10((VLOOKUP(B18,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25166450290775044</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="65">
         <v>3536</v>
       </c>
       <c r="K18">
@@ -50484,11 +50473,11 @@
         <f>LOG10((VLOOKUP(B19,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.26254503732777479</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="66">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="67">
         <v>3536</v>
       </c>
       <c r="K19" s="1">
@@ -50602,11 +50591,11 @@
         <f>LOG10((VLOOKUP(B20,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25751213029993636</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="63">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="65">
         <v>3536</v>
       </c>
       <c r="K20">
@@ -50720,11 +50709,11 @@
         <f>LOG10((VLOOKUP(B21,角色属性!B:V,16,FALSE)+135)/100)/12+0.12</f>
         <v>0.25470629282404711</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="68">
         <f>VLOOKUP($S$1,敌方属性表!A:J,4,FALSE)</f>
         <v>1837.5</v>
       </c>
-      <c r="J21" s="73">
+      <c r="J21" s="69">
         <v>3536</v>
       </c>
       <c r="K21" s="1">
